--- a/Intermediate II/Week 1/workbook/W1_V2 DropDownLists.xlsx
+++ b/Intermediate II/Week 1/workbook/W1_V2 DropDownLists.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mq20084022\Google Drive\Excel MOOC\003 Course 3 - Intermediate II\01 Week 1\01 Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foongmin\Desktop\excel-skills-for-business\Intermediate II\Week 1\workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7103E039-59ED-4B28-A78C-F4CAA5F3D75A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9168"/>
+    <workbookView xWindow="9130" yWindow="200" windowWidth="10070" windowHeight="9490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
     <sheet name="Lists" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Origins">Lists!$E$4:$E$12</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="144">
   <si>
     <t>Location</t>
   </si>
@@ -451,12 +455,18 @@
   </si>
   <si>
     <t>Departments</t>
+  </si>
+  <si>
+    <t>Origins</t>
+  </si>
+  <si>
+    <t>Italy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="00"/>
@@ -571,7 +581,14 @@
     <cellStyle name="Heading 3" xfId="2" builtinId="18"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
@@ -618,8 +635,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Inventory" displayName="Inventory" ref="A3:M54" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" headerRowCellStyle="Heading 3">
-  <autoFilter ref="A3:M54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Inventory" displayName="Inventory" ref="A3:M54" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" headerRowCellStyle="Heading 3">
+  <autoFilter ref="A3:M54" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -635,21 +652,31 @@
     <filterColumn colId="12" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" name="Product Code"/>
-    <tableColumn id="2" name="Item Description"/>
-    <tableColumn id="3" name="Supplier"/>
-    <tableColumn id="4" name="Department"/>
-    <tableColumn id="5" name="Origin"/>
-    <tableColumn id="6" name="Location"/>
-    <tableColumn id="7" name="Rack" dataDxfId="6"/>
-    <tableColumn id="8" name="In Stock" dataDxfId="5"/>
-    <tableColumn id="9" name="Target Level" dataDxfId="4"/>
-    <tableColumn id="10" name="Reorder Level" dataDxfId="3"/>
-    <tableColumn id="11" name="Last Ordered" dataDxfId="2"/>
-    <tableColumn id="12" name="Unit Cost" dataDxfId="1"/>
-    <tableColumn id="13" name="Retail Price" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Product Code"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Item Description"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Supplier"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Department"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Origin"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Location"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Rack" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="In Stock" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Target Level" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Reorder Level" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Last Ordered" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Unit Cost" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Retail Price" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{48DD4BD3-F4CF-4B18-BA4C-CA738C1E4C5F}" name="Table2" displayName="Table2" ref="E3:E12" totalsRowShown="0" headerRowBorderDxfId="0" headerRowCellStyle="Heading 3">
+  <autoFilter ref="E3:E12" xr:uid="{92AE05AE-76F4-4D5C-9238-CACB047D1BAF}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{28129C83-1E14-4C71-A01E-5DC09D445C79}" name="Origins"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -949,30 +976,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="48.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="48.453125" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" customWidth="1"/>
+    <col min="5" max="5" width="8.54296875" customWidth="1"/>
+    <col min="6" max="6" width="12.90625" customWidth="1"/>
+    <col min="7" max="7" width="7.08984375" style="10" customWidth="1"/>
     <col min="8" max="8" width="10" style="10" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" style="10" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.90625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="14.453125" customWidth="1"/>
+    <col min="12" max="12" width="12.54296875" customWidth="1"/>
+    <col min="13" max="13" width="13.08984375" customWidth="1"/>
+    <col min="15" max="15" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" ht="30.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:15" s="5" customFormat="1" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="4" t="s">
         <v>134</v>
       </c>
@@ -989,13 +1018,13 @@
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:15" s="5" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="5" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>48</v>
       </c>
@@ -1036,7 +1065,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -1078,7 +1107,7 @@
       </c>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1120,7 +1149,7 @@
       </c>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -1162,7 +1191,7 @@
       </c>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -1204,7 +1233,7 @@
       </c>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -1246,7 +1275,7 @@
       </c>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -1288,7 +1317,7 @@
       </c>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -1330,7 +1359,7 @@
       </c>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -1372,7 +1401,7 @@
       </c>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -1414,7 +1443,7 @@
       </c>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -1456,7 +1485,7 @@
       </c>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -1498,7 +1527,7 @@
       </c>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -1540,7 +1569,7 @@
       </c>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1582,7 +1611,7 @@
       </c>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -1624,7 +1653,7 @@
       </c>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -1666,7 +1695,7 @@
       </c>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -1708,7 +1737,7 @@
       </c>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>68</v>
       </c>
@@ -1750,7 +1779,7 @@
       </c>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -1792,7 +1821,7 @@
       </c>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -1834,7 +1863,7 @@
       </c>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -1876,7 +1905,7 @@
       </c>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -1918,7 +1947,7 @@
       </c>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -1960,7 +1989,7 @@
       </c>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -2002,7 +2031,7 @@
       </c>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>74</v>
       </c>
@@ -2044,7 +2073,7 @@
       </c>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -2086,7 +2115,7 @@
       </c>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -2128,7 +2157,7 @@
       </c>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -2170,7 +2199,7 @@
       </c>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -2212,7 +2241,7 @@
       </c>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>88</v>
       </c>
@@ -2254,7 +2283,7 @@
       </c>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -2296,7 +2325,7 @@
       </c>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>90</v>
       </c>
@@ -2338,7 +2367,7 @@
       </c>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>91</v>
       </c>
@@ -2380,7 +2409,7 @@
       </c>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>92</v>
       </c>
@@ -2422,7 +2451,7 @@
       </c>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>93</v>
       </c>
@@ -2464,7 +2493,7 @@
       </c>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>94</v>
       </c>
@@ -2506,7 +2535,7 @@
       </c>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -2548,7 +2577,7 @@
       </c>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>95</v>
       </c>
@@ -2590,7 +2619,7 @@
       </c>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -2632,7 +2661,7 @@
       </c>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -2674,7 +2703,7 @@
       </c>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>96</v>
       </c>
@@ -2716,7 +2745,7 @@
       </c>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>81</v>
       </c>
@@ -2758,7 +2787,7 @@
       </c>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>82</v>
       </c>
@@ -2800,7 +2829,7 @@
       </c>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>83</v>
       </c>
@@ -2842,7 +2871,7 @@
       </c>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -2884,7 +2913,7 @@
       </c>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>80</v>
       </c>
@@ -2926,7 +2955,7 @@
       </c>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>85</v>
       </c>
@@ -2968,7 +2997,7 @@
       </c>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>97</v>
       </c>
@@ -3010,7 +3039,7 @@
       </c>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>86</v>
       </c>
@@ -3052,7 +3081,7 @@
       </c>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>87</v>
       </c>
@@ -3094,7 +3123,7 @@
       </c>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>98</v>
       </c>
@@ -3136,7 +3165,7 @@
       </c>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>99</v>
       </c>
@@ -3179,13 +3208,19 @@
       <c r="O54" s="1"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Rack Number" error="Please enter a rack number between 1 and 9" promptTitle="Rack Number" prompt="Please enter a rack number between 1 and 9" sqref="G4:G54">
+  <dataValidations count="4">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Rack Number" error="Please enter a rack number between 1 and 9" promptTitle="Rack Number" prompt="Please enter a rack number between 1 and 9" sqref="G4:G54" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
       <formula2>9</formula2>
     </dataValidation>
-    <dataValidation type="textLength" errorStyle="warning" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Code" error="Should be 8 characters_x000a_" sqref="A4:A54">
+    <dataValidation type="textLength" errorStyle="warning" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Code" error="Should be 8 characters_x000a_" sqref="A4:A54" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F54" xr:uid="{4BB14B4A-CFF4-4575-BF1B-E0A7D824FE13}">
+      <formula1>"Basement, Showroom"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E54" xr:uid="{C4318931-F4C3-4FDB-AA7C-EFE65CC53F64}">
+      <formula1>Origins</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3197,21 +3232,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" customWidth="1"/>
     <col min="4" max="4" width="3" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="4" t="s">
         <v>139</v>
       </c>
@@ -3220,70 +3257,106 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>140</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>117</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>118</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>119</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>120</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>123</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>122</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>121</v>
       </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E12" t="s">
+        <v>143</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>